--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -46,90 +46,87 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>size</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>box</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -154,12 +151,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -169,52 +166,55 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -578,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>68</v>
@@ -647,37 +647,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,31 +715,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4">
-        <v>0.875</v>
-      </c>
-      <c r="L4">
-        <v>49</v>
-      </c>
-      <c r="M4">
-        <v>49</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>0.765625</v>
+      </c>
+      <c r="L6">
         <v>49</v>
       </c>
-      <c r="K6">
-        <v>0.8125</v>
-      </c>
-      <c r="L6">
-        <v>52</v>
-      </c>
       <c r="M6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6881720430107527</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.5796269727403156</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L8">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>293</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6486486486486487</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6302521008403361</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.5352697095435685</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L10">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M10">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6262135922330098</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C11">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.4786885245901639</v>
+        <v>0.4655737704918033</v>
       </c>
       <c r="L11">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="M11">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>636</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.3914373088685015</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5362318840579711</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C13">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D13">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>75</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4698795180722892</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4409448818897638</v>
+        <v>0.40625</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.3492063492063492</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4218009478672986</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.2167832167832168</v>
+        <v>0.232</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3684210526315789</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>59</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K18">
-        <v>0.1935483870967742</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3595505617977528</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.1927710843373494</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,7 +1497,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2959183673469388</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -1515,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.1831726555652936</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L20">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>932</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2673267326732673</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.1122994652406417</v>
+        <v>0.1700262927256792</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>332</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2422680412371134</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,31 +1615,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.09285714285714286</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="L22">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1397</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.213768115942029</v>
+        <v>0.205</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.08913649025069638</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,49 +1697,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.189873417721519</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.04533333333333334</v>
+        <v>0.08842652795838751</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>716</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.18</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1765,7 +1765,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>164</v>
+        <v>223</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <v>0.05059920106524634</v>
+      </c>
+      <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>0.97</v>
+      </c>
+      <c r="O25">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1786743515850144</v>
+        <v>0.181547619047619</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E26">
         <v>0.02</v>
@@ -1791,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>285</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1799,13 +1823,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1677215189873418</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1817,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1825,25 +1849,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1664190193164933</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C28">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>561</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1851,13 +1875,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1635514018691589</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1869,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1877,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1510416666666667</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1895,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1903,25 +1927,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1365638766519824</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="C31">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1929,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.125</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1947,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1955,25 +1979,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.112781954887218</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>236</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1981,25 +2005,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09615384615384616</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>329</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2007,25 +2031,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.08928571428571429</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>408</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2033,25 +2057,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08757062146892655</v>
+        <v>0.08099173553719008</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>323</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2059,25 +2083,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08250825082508251</v>
+        <v>0.06307692307692307</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F37">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>556</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2085,50 +2109,24 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05828220858895705</v>
+        <v>0.04846938775510204</v>
       </c>
       <c r="C38">
         <v>38</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E38">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F38">
-        <v>0.9299999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.04846938775510204</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>48</v>
-      </c>
-      <c r="E39">
-        <v>0.21</v>
-      </c>
-      <c r="F39">
-        <v>0.79</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
         <v>746</v>
       </c>
     </row>
